--- a/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
+++ b/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B75BED-B21A-42B5-8DDF-E223F07AAF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1040F2C1-B1B3-40E7-9310-874AA30DD827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>TT</t>
   </si>
@@ -103,6 +103,21 @@
   </si>
   <si>
     <t>+ Xem chi tiết hàng hóa trong giao dịch thiếu 2 cột 2 cột "Ngày sản xuất" vs "Hạn sử dụng".</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Cập nhật hàng hóa tồn kho</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Khi chọn tên kho dài, trường combobox "Kho" bị vỡ giao diện kéo dài theo tên kho.</t>
+  </si>
+  <si>
+    <t>Không bị vỡ form</t>
   </si>
 </sst>
 </file>
@@ -518,7 +533,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K2" s="8"/>
     </row>
@@ -628,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K3" s="10"/>
     </row>
@@ -659,23 +674,41 @@
         <v>11</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6">
+        <v>43507</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -696,7 +729,7 @@
   </sheetData>
   <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
+++ b/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1040F2C1-B1B3-40E7-9310-874AA30DD827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE3C33D-CFCE-4F66-A991-BBBD4D1D81DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>TT</t>
   </si>
@@ -114,10 +114,21 @@
     <t>Tìm kiếm</t>
   </si>
   <si>
-    <t>Khi chọn tên kho dài, trường combobox "Kho" bị vỡ giao diện kéo dài theo tên kho.</t>
-  </si>
-  <si>
-    <t>Không bị vỡ form</t>
+    <t>Đơn vị tính không hiển thị giá trị</t>
+  </si>
+  <si>
+    <t>Không order theo thời gian cập nhật mà order theo kho -&gt; hàng hóa. Mục đích khi người dùng tìm ra danh sách và ấn nút update thì sau khi ấn nút vị trí không bị nhẩy (vị trí bị nhẩy người dùng ko biết bản ghi đó được update hay chưa và khó theo dõi cho người dùng).</t>
+  </si>
+  <si>
+    <t>Màn hình cập nhật</t>
+  </si>
+  <si>
+    <t>-Bổ sung thêm trường "Đơn vị tính".
+- "Ngày nhập kho" -&gt; "Thời gian nhập kho"
+- Trường "Ghi chú" cho cùng dòng với trường "Ngày sản xuất"</t>
+  </si>
+  <si>
+    <t>1.Thay biểu tượng "Info" ở cột "Thao tác" bằng biểu tượng "cập nhật" như prototype.</t>
   </si>
 </sst>
 </file>
@@ -530,10 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -616,7 +628,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -647,7 +659,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -692,11 +704,9 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
@@ -711,25 +721,109 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43507</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="K6" s="10"/>
     </row>
+    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6">
+        <v>43507</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43507</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J8" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="New"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
+++ b/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE3C33D-CFCE-4F66-A991-BBBD4D1D81DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D4DAA3-B053-4857-8543-400E19D2F667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,24 +545,24 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" customWidth="1"/>
-    <col min="11" max="11" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -597,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -628,7 +628,7 @@
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -659,7 +659,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -690,7 +690,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -752,7 +752,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -783,7 +783,7 @@
       </c>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>

--- a/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
+++ b/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE3C33D-CFCE-4F66-A991-BBBD4D1D81DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB345E-E3E4-4B54-A49D-890DA4804EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>TT</t>
   </si>
@@ -76,9 +78,6 @@
   </si>
   <si>
     <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>New</t>
   </si>
   <si>
     <t>25/10/2019</t>
@@ -129,6 +128,64 @@
   </si>
   <si>
     <t>1.Thay biểu tượng "Info" ở cột "Thao tác" bằng biểu tượng "cập nhật" như prototype.</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Thông tin giao dịch</t>
+  </si>
+  <si>
+    <t>Xuất phiếu nhập/phiếu xuất</t>
+  </si>
+  <si>
+    <t>Bổ sung</t>
+  </si>
+  <si>
+    <t>Dùng account demo_admin/123456</t>
+  </si>
+  <si>
+    <t>Dùng account demo_admin/123456
+PNK/HNI_K4/11112019/00000002 
+PXK/HNI_K4/11112019/00000001</t>
+  </si>
+  <si>
+    <t>+ Format trường "Trọng lượng" 1800.0(Kg)  -&gt; 1,800(Kg)
++ Bổ sung thêm quy đổi đơn vị tấn cho dễ nhìn, hiển thị như sau: 1,800(Kg) = 1.8(tấn)</t>
+  </si>
+  <si>
+    <t>TruongBX3</t>
+  </si>
+  <si>
+    <t>Yêu cầu xuất kho</t>
+  </si>
+  <si>
+    <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>Chưa hiển thị đúng giá trị mặc định của trường "Hình thức xuất"</t>
+  </si>
+  <si>
+    <t>DoanLV4</t>
+  </si>
+  <si>
+    <t>Xóa yêu cầu</t>
+  </si>
+  <si>
+    <t>Chưa xong chức năng xóa Yêu cầu</t>
+  </si>
+  <si>
+    <t>Đã ẩn nút "Xóa" trên giao diện với những yêu cầu "Đã thực xuất", tuy nhiên khi xóa vẫn phải check lại chỉ status =1 mới cho xóa</t>
+  </si>
+  <si>
+    <t>Import file
+Nhập giao diện</t>
+  </si>
+  <si>
+    <t>Khi nhập hàng hóa và đẩy xuống dưới danh sách thì có hiển thị vị trí nhưng khi thực nhập thì vị trí không được lưu vào db (đang ko lưu trg vị trí và bảng tồn kho và bảng giao dịch)</t>
+  </si>
+  <si>
+    <t>Cao</t>
   </si>
 </sst>
 </file>
@@ -159,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,33 +267,37 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -241,21 +308,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +628,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,267 +641,397 @@
     <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="5" width="41.1796875" customWidth="1"/>
-    <col min="6" max="6" width="39.90625" customWidth="1"/>
+    <col min="6" max="6" width="28.08984375" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" customWidth="1"/>
     <col min="8" max="9" width="12.26953125" customWidth="1"/>
     <col min="10" max="10" width="9.26953125" customWidth="1"/>
-    <col min="11" max="11" width="24.26953125" customWidth="1"/>
+    <col min="11" max="11" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>43507</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>43507</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="87" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>43507</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5">
+        <v>43507</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="12">
+        <v>43780</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="12">
+        <v>43780</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="12">
+        <v>43780</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="E12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="12">
+        <v>43780</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="J12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43507</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43507</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6">
-        <v>43507</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="6">
-        <v>43507</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="10"/>
+      <c r="K12" s="22" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J8" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J9" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="9">
       <filters>
         <filter val="New"/>
@@ -823,7 +1039,7 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Lỗi, Đề xuất"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">

--- a/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
+++ b/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DB345E-E3E4-4B54-A49D-890DA4804EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56338A-C41D-4690-A5FC-33D611E14B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,10 +181,10 @@
 Nhập giao diện</t>
   </si>
   <si>
-    <t>Khi nhập hàng hóa và đẩy xuống dưới danh sách thì có hiển thị vị trí nhưng khi thực nhập thì vị trí không được lưu vào db (đang ko lưu trg vị trí và bảng tồn kho và bảng giao dịch)</t>
-  </si>
-  <si>
     <t>Cao</t>
+  </si>
+  <si>
+    <t>Khi nhập hàng hóa và đẩy xuống dưới danh sách thì có hiển thị vị trí nhưng khi thực nhập thì vị trí không được lưu vào db (đang ko lưu trường "Vị trí" vào bảng tồn kho và bảng giao dịch)</t>
   </si>
 </sst>
 </file>
@@ -631,7 +630,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,7 +996,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -1011,11 +1010,11 @@
         <v>7</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="12">
         <v>43780</v>

--- a/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
+++ b/4.Test/191025_Loi_Sua_ThanhThuy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56338A-C41D-4690-A5FC-33D611E14B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD6B718-C3FC-45BF-BBDC-DE8E1B9B509F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="49">
   <si>
     <t>TT</t>
   </si>
@@ -215,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -341,6 +347,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +649,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -933,35 +952,35 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="26">
         <v>43780</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="22"/>
+      <c r="J10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
@@ -997,35 +1016,35 @@
       <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="26">
         <v>43780</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="22" t="s">
+      <c r="J12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>35</v>
       </c>
     </row>
